--- a/biology/Botanique/Échinochloa_cultivé/Échinochloa_cultivé.xlsx
+++ b/biology/Botanique/Échinochloa_cultivé/Échinochloa_cultivé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chinochloa_cultiv%C3%A9</t>
+          <t>Échinochloa_cultivé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinochloa frumentacea, le pied-de-coq cultivé ou millet japonais, est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Panicoideae, originaire des régions tropicales d'Asie et d'Afrique.
 Cette espèce est cultivée comme céréale secondaire dans les pays chauds (Inde, Asie du Sud-Est, etc.).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chinochloa_cultiv%C3%A9</t>
+          <t>Échinochloa_cultivé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle d'une hauteur de 50 cm à 1 m.
 L'inflorescence est une panicule dense, comprenant une quinzaine de ramifications semblables à des épis.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chinochloa_cultiv%C3%A9</t>
+          <t>Échinochloa_cultivé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,15 +563,17 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle d'Echinochloa frumentacea s'étend en Afrique, en Asie et en Australie :
 Afrique :  Afrique du Sud, Angola, Burundi, Congo, Congo-Kinshasa, Éthiopie, Gambie, Kenya,  Malawi,  Nigeria, Soudan, Soudan du Sud, Tanzanie, Togo, Zimbabwe ;
 Asie : Bangladesh, Birmanie, Bhoutan, Chine (Tibet, Yunnan), Inde (Andhra Pradesh, Bihar, Goa, Jammu-Kashmir, Karnataka, Kerala, Madhya Pradesh, Maharashtra, Sikkim, Tamil Nadu), Laos, Malaisie, Pakistan, Philippines, Singapour, Sri Lanka, Thaïlande, Viet Nâm ;
-Australie[2].
+Australie.
 Son aire de répartition actuelle, essentiellement due à la culture, s'étend à la plupart des régions tropicales et subtropicales d'Afrique,
 d'Asie (depuis le sous-continent indien, Taïwan et  la Chine : Anhui, Heilongjiang, Henan, Guizhou, Yunnan, Nei Monggol, Níngxià, et vers le sud-est asiatique jusqu'en Nouvelle-Guinée), d'Australie et d'Amérique du Sud.
-L'espèce s'est naturalisée aux États-Unis et en Ukraine[3],[4].
+L'espèce s'est naturalisée aux États-Unis et en Ukraine,.
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chinochloa_cultiv%C3%A9</t>
+          <t>Échinochloa_cultivé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les graines sont riches en amidon (72 %) et en protéines (11,2 %).
 Alimentation humaine : les graines sont utilisées principalement en Asie, dans les régions inaptes à la culture du riz. On les consomme soit entières, soit réduites en farine, le plus souvent sous forme de bouillies.
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chinochloa_cultiv%C3%A9</t>
+          <t>Échinochloa_cultivé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,14 +638,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Synonymes
-Echinochloa colona (L.) Link ssp. frumentacea (Roxburgh)
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Echinochloa colona (L.) Link ssp. frumentacea (Roxburgh)
 Echinochloa crus-galli var. frumentacea (Link) E.G.Camus &amp; A.Camus
 Echinochloa utilis Ohwiet
 Oplismenus frumentaceus (Link) Kunth
-Panicum frumentaceum Roxb.
-Sous-espèces et variétés
-Selon Tropicos                                           (4 janvier 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+Panicum frumentaceum Roxb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échinochloa_cultivé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chinochloa_cultiv%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Echinochloa frumentacea subsp. frumentacea
 Echinochloa frumentacea subsp. utilis (Ohwi &amp; Yabuno) Tzvelev
